--- a/result/test.xlsx
+++ b/result/test.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="306" uniqueCount="293">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="306" uniqueCount="289">
   <si>
     <t>会員番号</t>
   </si>
@@ -334,565 +334,553 @@
     <t>099</t>
   </si>
   <si>
-    <t>椎名 米子</t>
-  </si>
-  <si>
-    <t>広島 たくみ</t>
-  </si>
-  <si>
-    <t>大嶺 順子</t>
-  </si>
-  <si>
-    <t>竜崎 早人</t>
-  </si>
-  <si>
-    <t>本山 新兵衛</t>
-  </si>
-  <si>
-    <t>守矢 みずき</t>
-  </si>
-  <si>
-    <t>桑田 ヨウコ</t>
-  </si>
-  <si>
-    <t>櫛比 レイ</t>
-  </si>
-  <si>
-    <t>宇賀神 月子</t>
-  </si>
-  <si>
-    <t>猪股 麗奈</t>
-  </si>
-  <si>
-    <t>園田 忍</t>
-  </si>
-  <si>
-    <t>塩田 つばさ</t>
-  </si>
-  <si>
-    <t>羽村 渚</t>
-  </si>
-  <si>
-    <t>宮前 サスケ</t>
-  </si>
-  <si>
-    <t>興梠 エリカ</t>
-  </si>
-  <si>
-    <t>鬼丸 真矢</t>
-  </si>
-  <si>
-    <t>宮崎 みゆき</t>
-  </si>
-  <si>
-    <t>根路銘 たけし</t>
-  </si>
-  <si>
-    <t>七海 八千代</t>
-  </si>
-  <si>
-    <t>宮島 なおき</t>
-  </si>
-  <si>
-    <t>中野 みき</t>
-  </si>
-  <si>
-    <t>女屋 長政</t>
-  </si>
-  <si>
-    <t>金丸 石松</t>
-  </si>
-  <si>
-    <t>遠野 国光</t>
-  </si>
-  <si>
-    <t>綾小路 ユカ</t>
-  </si>
-  <si>
-    <t>美鈴 千里</t>
-  </si>
-  <si>
-    <t>木村 勝</t>
-  </si>
-  <si>
-    <t>六本木 行徳</t>
-  </si>
-  <si>
-    <t>時田 エリナ</t>
-  </si>
-  <si>
-    <t>江草 広明</t>
-  </si>
-  <si>
-    <t>尾崎 はるひ</t>
-  </si>
-  <si>
-    <t>花田 ナオミ</t>
-  </si>
-  <si>
-    <t>勝俣 千早</t>
-  </si>
-  <si>
-    <t>中谷 タケル</t>
-  </si>
-  <si>
-    <t>木之本 サスケ</t>
-  </si>
-  <si>
-    <t>羽生 まこと</t>
-  </si>
-  <si>
-    <t>六車 二郎</t>
-  </si>
-  <si>
-    <t>金谷 千代</t>
-  </si>
-  <si>
-    <t>幅 聖</t>
-  </si>
-  <si>
-    <t>野本 翔太</t>
-  </si>
-  <si>
-    <t>矢萩 麻乃</t>
-  </si>
-  <si>
-    <t>北島 英明</t>
-  </si>
-  <si>
-    <t>牧田 武</t>
-  </si>
-  <si>
-    <t>与 さとみ</t>
-  </si>
-  <si>
-    <t>武田 忍</t>
-  </si>
-  <si>
-    <t>高野 吉弘</t>
-  </si>
-  <si>
-    <t>調辺 国光</t>
-  </si>
-  <si>
-    <t>古屋 竜門</t>
-  </si>
-  <si>
-    <t>武市 麻乃</t>
-  </si>
-  <si>
-    <t>正親町三条 あゆみ</t>
-  </si>
-  <si>
-    <t>石塚 詩織</t>
-  </si>
-  <si>
-    <t>森本 忍</t>
-  </si>
-  <si>
-    <t>菅井 ノエル</t>
-  </si>
-  <si>
-    <t>雨宮 みゆ</t>
-  </si>
-  <si>
-    <t>安岡 隼人</t>
-  </si>
-  <si>
-    <t>乳井 石松</t>
-  </si>
-  <si>
-    <t>綿貫 米子</t>
-  </si>
-  <si>
-    <t>草野 サトシ</t>
-  </si>
-  <si>
-    <t>法華津 あすか</t>
-  </si>
-  <si>
-    <t>浦 アカネ</t>
-  </si>
-  <si>
-    <t>池上 あすか</t>
-  </si>
-  <si>
-    <t>長内 ユウキ</t>
-  </si>
-  <si>
-    <t>美墨 葵</t>
-  </si>
-  <si>
-    <t>高橋 みのる</t>
-  </si>
-  <si>
-    <t>門倉 悪太郎</t>
-  </si>
-  <si>
-    <t>中林 ヨーコ</t>
-  </si>
-  <si>
-    <t>柴山 一太郎</t>
-  </si>
-  <si>
-    <t>富永 聖</t>
-  </si>
-  <si>
-    <t>田口 国光</t>
-  </si>
-  <si>
-    <t>大宮 サトシ</t>
-  </si>
-  <si>
-    <t>江藤 タクマ</t>
-  </si>
-  <si>
-    <t>岩田 かんな</t>
-  </si>
-  <si>
-    <t>宇喜多 伸幸</t>
-  </si>
-  <si>
-    <t>税所 長安</t>
-  </si>
-  <si>
-    <t>楓 彬子</t>
-  </si>
-  <si>
-    <t>竜宮 国包</t>
-  </si>
-  <si>
-    <t>枝野 ミチル</t>
-  </si>
-  <si>
-    <t>茂木 みちこ</t>
-  </si>
-  <si>
-    <t>等々力 ちひろ</t>
-  </si>
-  <si>
-    <t>壬生 のぞみ</t>
-  </si>
-  <si>
-    <t>上遠野 勇人</t>
-  </si>
-  <si>
-    <t>松 舞</t>
-  </si>
-  <si>
-    <t>甲 久保</t>
-  </si>
-  <si>
-    <t>前沢 博文</t>
-  </si>
-  <si>
-    <t>三沢 裕次郎</t>
-  </si>
-  <si>
-    <t>小野塚 武雄</t>
-  </si>
-  <si>
-    <t>谷屋 さとる</t>
-  </si>
-  <si>
-    <t>松沢 美月</t>
-  </si>
-  <si>
-    <t>金城 永久</t>
-  </si>
-  <si>
-    <t>田上 二郎</t>
-  </si>
-  <si>
-    <t>田島 アキラ</t>
-  </si>
-  <si>
-    <t>黒川 はやて</t>
-  </si>
-  <si>
-    <t>村山 友哉</t>
-  </si>
-  <si>
-    <t>結城 タクマ</t>
-  </si>
-  <si>
-    <t>出張 米子</t>
-  </si>
-  <si>
-    <t>高須 愛子</t>
-  </si>
-  <si>
-    <t>遠野 亜沙美</t>
-  </si>
-  <si>
-    <t>勅使川原 史絵</t>
-  </si>
-  <si>
-    <t>向井 千代</t>
-  </si>
-  <si>
-    <t>都築 国包</t>
-  </si>
-  <si>
-    <t>2021-07-14</t>
-  </si>
-  <si>
-    <t>2021-12-17</t>
+    <t>長野原 ひろし</t>
+  </si>
+  <si>
+    <t>般若 竜門</t>
+  </si>
+  <si>
+    <t>十河 アンナ</t>
+  </si>
+  <si>
+    <t>御剣 京太郎</t>
+  </si>
+  <si>
+    <t>尾崎 ユリア</t>
+  </si>
+  <si>
+    <t>北原 陸</t>
+  </si>
+  <si>
+    <t>石坂 タクマ</t>
+  </si>
+  <si>
+    <t>古泉 ひろみ</t>
+  </si>
+  <si>
+    <t>安藤 みらい</t>
+  </si>
+  <si>
+    <t>直江 寅次郎</t>
+  </si>
+  <si>
+    <t>町 まこと</t>
+  </si>
+  <si>
+    <t>宮内 さとみ</t>
+  </si>
+  <si>
+    <t>松崎 しんご</t>
+  </si>
+  <si>
+    <t>穂積 アキラ</t>
+  </si>
+  <si>
+    <t>久保寺 弥太郎</t>
+  </si>
+  <si>
+    <t>有働 翔太</t>
+  </si>
+  <si>
+    <t>宮城 アキラ</t>
+  </si>
+  <si>
+    <t>小幡 リリ</t>
+  </si>
+  <si>
+    <t>車 美智子</t>
+  </si>
+  <si>
+    <t>野崎 一輝</t>
+  </si>
+  <si>
+    <t>宮崎 みちこ</t>
+  </si>
+  <si>
+    <t>小玉 レイ</t>
+  </si>
+  <si>
+    <t>連 早人</t>
+  </si>
+  <si>
+    <t>椎葉 渚</t>
+  </si>
+  <si>
+    <t>大谷 さとる</t>
+  </si>
+  <si>
+    <t>司 亜沙美</t>
+  </si>
+  <si>
+    <t>丹羽 貞子</t>
+  </si>
+  <si>
+    <t>鮭延 しずか</t>
+  </si>
+  <si>
+    <t>大村 タクマ</t>
+  </si>
+  <si>
+    <t>榎本 ななこ</t>
+  </si>
+  <si>
+    <t>栗栖 ワタル</t>
+  </si>
+  <si>
+    <t>得津 信夫</t>
+  </si>
+  <si>
+    <t>下川 雄一郎</t>
+  </si>
+  <si>
+    <t>棚原 史絵</t>
+  </si>
+  <si>
+    <t>屋良 杏奈</t>
+  </si>
+  <si>
+    <t>狩野 ナオミ</t>
+  </si>
+  <si>
+    <t>利根 武</t>
+  </si>
+  <si>
+    <t>宮脇 可憐</t>
+  </si>
+  <si>
+    <t>似鳥 千里</t>
+  </si>
+  <si>
+    <t>岡山 千秋</t>
+  </si>
+  <si>
+    <t>新垣 弥太郎</t>
+  </si>
+  <si>
+    <t>土橋 たけし</t>
+  </si>
+  <si>
+    <t>吉永 はるひ</t>
+  </si>
+  <si>
+    <t>岡 鉄平</t>
+  </si>
+  <si>
+    <t>蛯原 心愛</t>
+  </si>
+  <si>
+    <t>青野 京太郎</t>
+  </si>
+  <si>
+    <t>佐村河内 あずさ</t>
+  </si>
+  <si>
+    <t>高岩 小春</t>
+  </si>
+  <si>
+    <t>平塚 悪太郎</t>
+  </si>
+  <si>
+    <t>我妻 花梨</t>
+  </si>
+  <si>
+    <t>小日向 レイ</t>
+  </si>
+  <si>
+    <t>椎葉 京太郎</t>
+  </si>
+  <si>
+    <t>葛城 かんな</t>
+  </si>
+  <si>
+    <t>大石 大五郎</t>
+  </si>
+  <si>
+    <t>神山 ともか</t>
+  </si>
+  <si>
+    <t>井川 まどか</t>
+  </si>
+  <si>
+    <t>法華津 みき</t>
+  </si>
+  <si>
+    <t>外間 八千代</t>
+  </si>
+  <si>
+    <t>錦小路 博文</t>
+  </si>
+  <si>
+    <t>田村 ミカ</t>
+  </si>
+  <si>
+    <t>保谷 あすか</t>
+  </si>
+  <si>
+    <t>久保 吉弘</t>
+  </si>
+  <si>
+    <t>西浦 七瀬</t>
+  </si>
+  <si>
+    <t>三橋 かおる</t>
+  </si>
+  <si>
+    <t>千葉 長子</t>
+  </si>
+  <si>
+    <t>米野 貴志</t>
+  </si>
+  <si>
+    <t>城間 まこと</t>
+  </si>
+  <si>
+    <t>池永 真帆</t>
+  </si>
+  <si>
+    <t>神田 裕次郎</t>
+  </si>
+  <si>
+    <t>高 かんな</t>
+  </si>
+  <si>
+    <t>桜木 つばさ</t>
+  </si>
+  <si>
+    <t>伊豆 しおり</t>
+  </si>
+  <si>
+    <t>武内 テツヤ</t>
+  </si>
+  <si>
+    <t>野 一輝</t>
+  </si>
+  <si>
+    <t>栃木 優</t>
+  </si>
+  <si>
+    <t>龍神 英明</t>
+  </si>
+  <si>
+    <t>久米 たけし</t>
+  </si>
+  <si>
+    <t>有賀 さおり</t>
+  </si>
+  <si>
+    <t>富井 ユウキ</t>
+  </si>
+  <si>
+    <t>小森 元</t>
+  </si>
+  <si>
+    <t>重信 和義</t>
+  </si>
+  <si>
+    <t>海老名 まゆ</t>
+  </si>
+  <si>
+    <t>根本 レイナ</t>
+  </si>
+  <si>
+    <t>曽我 初子</t>
+  </si>
+  <si>
+    <t>柴崎 律</t>
+  </si>
+  <si>
+    <t>北村 さとる</t>
+  </si>
+  <si>
+    <t>水森 さとみ</t>
+  </si>
+  <si>
+    <t>小野塚 仁</t>
+  </si>
+  <si>
+    <t>三村 のぞみ</t>
+  </si>
+  <si>
+    <t>小西 みのる</t>
+  </si>
+  <si>
+    <t>小倉 磐</t>
+  </si>
+  <si>
+    <t>寒川 与一</t>
+  </si>
+  <si>
+    <t>巳姫 瀬里奈</t>
+  </si>
+  <si>
+    <t>幸地 七瀬</t>
+  </si>
+  <si>
+    <t>戸田 たけし</t>
+  </si>
+  <si>
+    <t>堀江 千里</t>
+  </si>
+  <si>
+    <t>千葉 心愛</t>
+  </si>
+  <si>
+    <t>高須 いろは</t>
+  </si>
+  <si>
+    <t>五味 ゆり</t>
+  </si>
+  <si>
+    <t>刈谷 国包</t>
+  </si>
+  <si>
+    <t>2021-05-16</t>
+  </si>
+  <si>
+    <t>2021-07-19</t>
+  </si>
+  <si>
+    <t>2021-09-06</t>
+  </si>
+  <si>
+    <t>2021-02-28</t>
+  </si>
+  <si>
+    <t>2021-01-07</t>
+  </si>
+  <si>
+    <t>2021-03-05</t>
+  </si>
+  <si>
+    <t>2021-04-12</t>
+  </si>
+  <si>
+    <t>2021-01-13</t>
+  </si>
+  <si>
+    <t>2021-03-02</t>
+  </si>
+  <si>
+    <t>2021-12-11</t>
+  </si>
+  <si>
+    <t>2021-01-19</t>
+  </si>
+  <si>
+    <t>2021-03-26</t>
+  </si>
+  <si>
+    <t>2021-12-20</t>
+  </si>
+  <si>
+    <t>2021-04-26</t>
+  </si>
+  <si>
+    <t>2021-03-01</t>
+  </si>
+  <si>
+    <t>2021-10-12</t>
+  </si>
+  <si>
+    <t>2021-12-14</t>
+  </si>
+  <si>
+    <t>2021-08-02</t>
+  </si>
+  <si>
+    <t>2021-04-07</t>
+  </si>
+  <si>
+    <t>2021-10-06</t>
+  </si>
+  <si>
+    <t>2021-02-08</t>
+  </si>
+  <si>
+    <t>2021-12-26</t>
+  </si>
+  <si>
+    <t>2021-09-13</t>
+  </si>
+  <si>
+    <t>2021-09-24</t>
+  </si>
+  <si>
+    <t>2021-09-16</t>
+  </si>
+  <si>
+    <t>2021-06-11</t>
+  </si>
+  <si>
+    <t>2021-04-20</t>
+  </si>
+  <si>
+    <t>2021-04-02</t>
+  </si>
+  <si>
+    <t>2021-03-24</t>
+  </si>
+  <si>
+    <t>2021-02-01</t>
+  </si>
+  <si>
+    <t>2021-11-17</t>
+  </si>
+  <si>
+    <t>2021-02-13</t>
+  </si>
+  <si>
+    <t>2021-11-16</t>
+  </si>
+  <si>
+    <t>2021-12-03</t>
+  </si>
+  <si>
+    <t>2021-07-17</t>
+  </si>
+  <si>
+    <t>2021-03-04</t>
+  </si>
+  <si>
+    <t>2021-08-15</t>
+  </si>
+  <si>
+    <t>2021-06-19</t>
   </si>
   <si>
     <t>2021-09-23</t>
   </si>
   <si>
-    <t>2021-06-22</t>
-  </si>
-  <si>
-    <t>2021-09-26</t>
-  </si>
-  <si>
-    <t>2021-12-12</t>
-  </si>
-  <si>
-    <t>2021-07-21</t>
-  </si>
-  <si>
-    <t>2021-07-22</t>
-  </si>
-  <si>
-    <t>2021-05-17</t>
-  </si>
-  <si>
-    <t>2021-07-10</t>
-  </si>
-  <si>
-    <t>2021-07-09</t>
-  </si>
-  <si>
-    <t>2021-09-06</t>
-  </si>
-  <si>
-    <t>2021-04-07</t>
-  </si>
-  <si>
-    <t>2021-11-20</t>
-  </si>
-  <si>
-    <t>2021-01-19</t>
-  </si>
-  <si>
-    <t>2021-06-07</t>
-  </si>
-  <si>
-    <t>2021-10-09</t>
-  </si>
-  <si>
-    <t>2021-03-05</t>
-  </si>
-  <si>
-    <t>2021-08-14</t>
-  </si>
-  <si>
-    <t>2021-03-01</t>
-  </si>
-  <si>
-    <t>2021-08-09</t>
-  </si>
-  <si>
-    <t>2021-02-25</t>
-  </si>
-  <si>
-    <t>2021-11-10</t>
+    <t>2021-02-27</t>
+  </si>
+  <si>
+    <t>2021-04-27</t>
+  </si>
+  <si>
+    <t>2021-01-21</t>
+  </si>
+  <si>
+    <t>2021-11-25</t>
+  </si>
+  <si>
+    <t>2021-12-22</t>
+  </si>
+  <si>
+    <t>2021-04-19</t>
+  </si>
+  <si>
+    <t>2021-05-23</t>
+  </si>
+  <si>
+    <t>2021-01-25</t>
+  </si>
+  <si>
+    <t>2021-06-23</t>
+  </si>
+  <si>
+    <t>2021-02-05</t>
+  </si>
+  <si>
+    <t>2021-03-22</t>
+  </si>
+  <si>
+    <t>2021-10-15</t>
+  </si>
+  <si>
+    <t>2021-11-09</t>
+  </si>
+  <si>
+    <t>2021-05-07</t>
+  </si>
+  <si>
+    <t>2021-11-21</t>
+  </si>
+  <si>
+    <t>2021-06-10</t>
+  </si>
+  <si>
+    <t>2021-06-16</t>
+  </si>
+  <si>
+    <t>2021-11-14</t>
+  </si>
+  <si>
+    <t>2021-09-10</t>
+  </si>
+  <si>
+    <t>2021-08-20</t>
+  </si>
+  <si>
+    <t>2021-09-01</t>
+  </si>
+  <si>
+    <t>2021-07-25</t>
+  </si>
+  <si>
+    <t>2021-11-18</t>
   </si>
   <si>
     <t>2021-05-04</t>
   </si>
   <si>
-    <t>2021-04-17</t>
-  </si>
-  <si>
-    <t>2021-08-24</t>
-  </si>
-  <si>
-    <t>2021-05-01</t>
-  </si>
-  <si>
-    <t>2021-01-12</t>
-  </si>
-  <si>
-    <t>2021-10-27</t>
-  </si>
-  <si>
-    <t>2021-07-07</t>
-  </si>
-  <si>
-    <t>2021-03-14</t>
-  </si>
-  <si>
-    <t>2021-04-09</t>
+    <t>2021-07-23</t>
+  </si>
+  <si>
+    <t>2021-10-26</t>
+  </si>
+  <si>
+    <t>2021-10-22</t>
+  </si>
+  <si>
+    <t>2021-10-08</t>
+  </si>
+  <si>
+    <t>2021-08-16</t>
+  </si>
+  <si>
+    <t>2021-08-13</t>
+  </si>
+  <si>
+    <t>2021-04-28</t>
+  </si>
+  <si>
+    <t>2021-06-21</t>
+  </si>
+  <si>
+    <t>2021-03-09</t>
+  </si>
+  <si>
+    <t>2021-04-10</t>
   </si>
   <si>
     <t>2021-07-20</t>
   </si>
   <si>
-    <t>2021-01-15</t>
-  </si>
-  <si>
-    <t>2021-12-10</t>
-  </si>
-  <si>
-    <t>2021-10-11</t>
-  </si>
-  <si>
-    <t>2021-09-10</t>
-  </si>
-  <si>
-    <t>2021-09-11</t>
-  </si>
-  <si>
-    <t>2021-03-26</t>
-  </si>
-  <si>
-    <t>2021-01-10</t>
-  </si>
-  <si>
-    <t>2021-11-18</t>
-  </si>
-  <si>
     <t>2021-01-14</t>
   </si>
   <si>
-    <t>2021-05-07</t>
-  </si>
-  <si>
-    <t>2021-06-24</t>
-  </si>
-  <si>
-    <t>2021-05-12</t>
-  </si>
-  <si>
-    <t>2021-11-03</t>
-  </si>
-  <si>
-    <t>2021-04-12</t>
-  </si>
-  <si>
-    <t>2021-10-23</t>
-  </si>
-  <si>
-    <t>2021-07-15</t>
-  </si>
-  <si>
-    <t>2021-02-03</t>
-  </si>
-  <si>
-    <t>2021-06-02</t>
-  </si>
-  <si>
-    <t>2021-04-19</t>
-  </si>
-  <si>
-    <t>2021-02-06</t>
-  </si>
-  <si>
-    <t>2021-05-16</t>
-  </si>
-  <si>
-    <t>2021-02-27</t>
-  </si>
-  <si>
-    <t>2021-08-28</t>
-  </si>
-  <si>
-    <t>2021-10-08</t>
-  </si>
-  <si>
-    <t>2021-04-23</t>
-  </si>
-  <si>
-    <t>2021-04-06</t>
-  </si>
-  <si>
-    <t>2021-04-18</t>
-  </si>
-  <si>
-    <t>2021-12-04</t>
-  </si>
-  <si>
-    <t>2021-09-19</t>
-  </si>
-  <si>
-    <t>2021-01-22</t>
-  </si>
-  <si>
-    <t>2021-02-12</t>
-  </si>
-  <si>
-    <t>2021-03-19</t>
-  </si>
-  <si>
-    <t>2021-03-28</t>
-  </si>
-  <si>
-    <t>2021-12-09</t>
-  </si>
-  <si>
-    <t>2021-04-03</t>
-  </si>
-  <si>
-    <t>2021-02-05</t>
-  </si>
-  <si>
-    <t>2021-06-12</t>
-  </si>
-  <si>
-    <t>2021-08-08</t>
-  </si>
-  <si>
-    <t>2021-03-24</t>
-  </si>
-  <si>
-    <t>2021-07-08</t>
-  </si>
-  <si>
-    <t>2021-06-15</t>
-  </si>
-  <si>
-    <t>2021-06-18</t>
-  </si>
-  <si>
-    <t>2021-06-10</t>
+    <t>2021-03-13</t>
+  </si>
+  <si>
+    <t>2021-02-26</t>
+  </si>
+  <si>
+    <t>2021-03-15</t>
+  </si>
+  <si>
+    <t>2021-01-26</t>
+  </si>
+  <si>
+    <t>2021-01-11</t>
+  </si>
+  <si>
+    <t>2021-11-06</t>
   </si>
   <si>
     <t>2021-09-22</t>
   </si>
   <si>
-    <t>2021-01-06</t>
-  </si>
-  <si>
-    <t>2021-02-17</t>
-  </si>
-  <si>
-    <t>2021-07-16</t>
-  </si>
-  <si>
-    <t>2021-03-18</t>
-  </si>
-  <si>
-    <t>2021-02-23</t>
-  </si>
-  <si>
-    <t>2021-02-19</t>
-  </si>
-  <si>
-    <t>2021-10-15</t>
-  </si>
-  <si>
-    <t>2021-06-21</t>
-  </si>
-  <si>
-    <t>2021-01-20</t>
-  </si>
-  <si>
-    <t>2021-05-11</t>
+    <t>2021-02-15</t>
   </si>
 </sst>
 </file>
@@ -1284,16 +1272,16 @@
         <v>106</v>
       </c>
       <c r="C2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D2">
-        <v>45</v>
+        <v>58</v>
       </c>
       <c r="E2" t="s">
         <v>206</v>
       </c>
       <c r="F2">
-        <v>56.25</v>
+        <v>58</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -1304,16 +1292,16 @@
         <v>107</v>
       </c>
       <c r="C3">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D3">
-        <v>39</v>
+        <v>75</v>
       </c>
       <c r="E3" t="s">
         <v>207</v>
       </c>
       <c r="F3">
-        <v>48.75</v>
+        <v>75</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -1324,16 +1312,16 @@
         <v>108</v>
       </c>
       <c r="C4">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D4">
-        <v>27</v>
+        <v>57</v>
       </c>
       <c r="E4" t="s">
         <v>208</v>
       </c>
       <c r="F4">
-        <v>33.75</v>
+        <v>57</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -1344,16 +1332,16 @@
         <v>109</v>
       </c>
       <c r="C5">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D5">
-        <v>22</v>
+        <v>65</v>
       </c>
       <c r="E5" t="s">
         <v>209</v>
       </c>
       <c r="F5">
-        <v>22</v>
+        <v>81.25</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -1364,16 +1352,16 @@
         <v>110</v>
       </c>
       <c r="C6">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D6">
-        <v>11</v>
+        <v>73</v>
       </c>
       <c r="E6" t="s">
         <v>210</v>
       </c>
       <c r="F6">
-        <v>13.75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -1384,16 +1372,16 @@
         <v>111</v>
       </c>
       <c r="C7">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D7">
-        <v>50</v>
+        <v>64</v>
       </c>
       <c r="E7" t="s">
         <v>211</v>
       </c>
       <c r="F7">
-        <v>62.5</v>
+        <v>80</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -1404,16 +1392,16 @@
         <v>112</v>
       </c>
       <c r="C8">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D8">
-        <v>14</v>
+        <v>67</v>
       </c>
       <c r="E8" t="s">
         <v>212</v>
       </c>
       <c r="F8">
-        <v>14</v>
+        <v>83.75</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -1424,16 +1412,16 @@
         <v>113</v>
       </c>
       <c r="C9">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D9">
-        <v>18</v>
+        <v>52</v>
       </c>
       <c r="E9" t="s">
         <v>213</v>
       </c>
       <c r="F9">
-        <v>22.5</v>
+        <v>65</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -1444,16 +1432,16 @@
         <v>114</v>
       </c>
       <c r="C10">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D10">
-        <v>55</v>
+        <v>66</v>
       </c>
       <c r="E10" t="s">
         <v>214</v>
       </c>
       <c r="F10">
-        <v>55</v>
+        <v>66</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -1464,16 +1452,16 @@
         <v>115</v>
       </c>
       <c r="C11">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D11">
-        <v>7</v>
+        <v>100</v>
       </c>
       <c r="E11" t="s">
         <v>215</v>
       </c>
       <c r="F11">
-        <v>7</v>
+        <v>125</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -1487,13 +1475,13 @@
         <v>2</v>
       </c>
       <c r="D12">
-        <v>10</v>
+        <v>74</v>
       </c>
       <c r="E12" t="s">
         <v>216</v>
       </c>
       <c r="F12">
-        <v>10</v>
+        <v>74</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -1504,16 +1492,16 @@
         <v>117</v>
       </c>
       <c r="C13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D13">
-        <v>87</v>
+        <v>72</v>
       </c>
       <c r="E13" t="s">
         <v>217</v>
       </c>
       <c r="F13">
-        <v>87</v>
+        <v>72</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -1524,16 +1512,16 @@
         <v>118</v>
       </c>
       <c r="C14">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D14">
-        <v>87</v>
+        <v>54</v>
       </c>
       <c r="E14" t="s">
         <v>218</v>
       </c>
       <c r="F14">
-        <v>108.75</v>
+        <v>54</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -1544,16 +1532,16 @@
         <v>119</v>
       </c>
       <c r="C15">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D15">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="E15" t="s">
         <v>219</v>
       </c>
       <c r="F15">
-        <v>60</v>
+        <v>62.5</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -1564,16 +1552,16 @@
         <v>120</v>
       </c>
       <c r="C16">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D16">
-        <v>95</v>
+        <v>61</v>
       </c>
       <c r="E16" t="s">
         <v>220</v>
       </c>
       <c r="F16">
-        <v>95</v>
+        <v>76.25</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -1587,13 +1575,13 @@
         <v>3</v>
       </c>
       <c r="D17">
-        <v>3</v>
+        <v>84</v>
       </c>
       <c r="E17" t="s">
         <v>221</v>
       </c>
       <c r="F17">
-        <v>3</v>
+        <v>84</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -1604,16 +1592,16 @@
         <v>122</v>
       </c>
       <c r="C18">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D18">
-        <v>21</v>
+        <v>83</v>
       </c>
       <c r="E18" t="s">
         <v>222</v>
       </c>
       <c r="F18">
-        <v>21</v>
+        <v>83</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -1624,16 +1612,16 @@
         <v>123</v>
       </c>
       <c r="C19">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D19">
-        <v>11</v>
+        <v>83</v>
       </c>
       <c r="E19" t="s">
         <v>223</v>
       </c>
       <c r="F19">
-        <v>13.75</v>
+        <v>103.75</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -1644,16 +1632,16 @@
         <v>124</v>
       </c>
       <c r="C20">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D20">
-        <v>1</v>
+        <v>50</v>
       </c>
       <c r="E20" t="s">
         <v>224</v>
       </c>
       <c r="F20">
-        <v>1.25</v>
+        <v>50</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -1664,16 +1652,16 @@
         <v>125</v>
       </c>
       <c r="C21">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D21">
-        <v>97</v>
+        <v>56</v>
       </c>
       <c r="E21" t="s">
         <v>225</v>
       </c>
       <c r="F21">
-        <v>97</v>
+        <v>56</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -1684,16 +1672,16 @@
         <v>126</v>
       </c>
       <c r="C22">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D22">
-        <v>4</v>
+        <v>79</v>
       </c>
       <c r="E22" t="s">
         <v>226</v>
       </c>
       <c r="F22">
-        <v>5</v>
+        <v>79</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -1707,13 +1695,13 @@
         <v>5</v>
       </c>
       <c r="D23">
-        <v>11</v>
+        <v>58</v>
       </c>
       <c r="E23" t="s">
         <v>227</v>
       </c>
       <c r="F23">
-        <v>13.75</v>
+        <v>72.5</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -1724,16 +1712,16 @@
         <v>128</v>
       </c>
       <c r="C24">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D24">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="E24" t="s">
         <v>228</v>
       </c>
       <c r="F24">
-        <v>75</v>
+        <v>81</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -1744,16 +1732,16 @@
         <v>129</v>
       </c>
       <c r="C25">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D25">
-        <v>44</v>
+        <v>81</v>
       </c>
       <c r="E25" t="s">
         <v>229</v>
       </c>
       <c r="F25">
-        <v>44</v>
+        <v>101.25</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -1764,16 +1752,16 @@
         <v>130</v>
       </c>
       <c r="C26">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D26">
-        <v>57</v>
+        <v>66</v>
       </c>
       <c r="E26" t="s">
         <v>230</v>
       </c>
       <c r="F26">
-        <v>57</v>
+        <v>66</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -1787,13 +1775,13 @@
         <v>1</v>
       </c>
       <c r="D27">
-        <v>94</v>
+        <v>84</v>
       </c>
       <c r="E27" t="s">
         <v>231</v>
       </c>
       <c r="F27">
-        <v>94</v>
+        <v>84</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -1804,16 +1792,16 @@
         <v>132</v>
       </c>
       <c r="C28">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D28">
-        <v>66</v>
+        <v>95</v>
       </c>
       <c r="E28" t="s">
         <v>232</v>
       </c>
       <c r="F28">
-        <v>66</v>
+        <v>95</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -1824,16 +1812,16 @@
         <v>133</v>
       </c>
       <c r="C29">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D29">
-        <v>60</v>
+        <v>92</v>
       </c>
       <c r="E29" t="s">
         <v>233</v>
       </c>
       <c r="F29">
-        <v>60</v>
+        <v>115</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -1844,16 +1832,16 @@
         <v>134</v>
       </c>
       <c r="C30">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D30">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="E30" t="s">
         <v>234</v>
       </c>
       <c r="F30">
-        <v>115</v>
+        <v>89</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -1864,16 +1852,16 @@
         <v>135</v>
       </c>
       <c r="C31">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D31">
-        <v>20</v>
+        <v>98</v>
       </c>
       <c r="E31" t="s">
         <v>235</v>
       </c>
       <c r="F31">
-        <v>25</v>
+        <v>98</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -1884,16 +1872,16 @@
         <v>136</v>
       </c>
       <c r="C32">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D32">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E32" t="s">
         <v>236</v>
       </c>
       <c r="F32">
-        <v>71</v>
+        <v>87.5</v>
       </c>
     </row>
     <row r="33" spans="1:6">
@@ -1904,16 +1892,16 @@
         <v>137</v>
       </c>
       <c r="C33">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D33">
-        <v>1</v>
+        <v>96</v>
       </c>
       <c r="E33" t="s">
         <v>237</v>
       </c>
       <c r="F33">
-        <v>1</v>
+        <v>96</v>
       </c>
     </row>
     <row r="34" spans="1:6">
@@ -1924,16 +1912,16 @@
         <v>138</v>
       </c>
       <c r="C34">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D34">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="E34" t="s">
         <v>238</v>
       </c>
       <c r="F34">
-        <v>58</v>
+        <v>62</v>
       </c>
     </row>
     <row r="35" spans="1:6">
@@ -1947,13 +1935,13 @@
         <v>5</v>
       </c>
       <c r="D35">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="E35" t="s">
         <v>239</v>
       </c>
       <c r="F35">
-        <v>95</v>
+        <v>92.5</v>
       </c>
     </row>
     <row r="36" spans="1:6">
@@ -1964,16 +1952,16 @@
         <v>140</v>
       </c>
       <c r="C36">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D36">
-        <v>37</v>
+        <v>82</v>
       </c>
       <c r="E36" t="s">
         <v>240</v>
       </c>
       <c r="F36">
-        <v>37</v>
+        <v>82</v>
       </c>
     </row>
     <row r="37" spans="1:6">
@@ -1987,13 +1975,13 @@
         <v>1</v>
       </c>
       <c r="D37">
-        <v>46</v>
+        <v>62</v>
       </c>
       <c r="E37" t="s">
         <v>241</v>
       </c>
       <c r="F37">
-        <v>46</v>
+        <v>62</v>
       </c>
     </row>
     <row r="38" spans="1:6">
@@ -2007,13 +1995,13 @@
         <v>5</v>
       </c>
       <c r="D38">
-        <v>97</v>
+        <v>86</v>
       </c>
       <c r="E38" t="s">
-        <v>242</v>
+        <v>220</v>
       </c>
       <c r="F38">
-        <v>121.25</v>
+        <v>107.5</v>
       </c>
     </row>
     <row r="39" spans="1:6">
@@ -2024,16 +2012,16 @@
         <v>143</v>
       </c>
       <c r="C39">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D39">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="E39" t="s">
-        <v>243</v>
+        <v>222</v>
       </c>
       <c r="F39">
-        <v>30</v>
+        <v>50</v>
       </c>
     </row>
     <row r="40" spans="1:6">
@@ -2044,16 +2032,16 @@
         <v>144</v>
       </c>
       <c r="C40">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D40">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="E40" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="F40">
-        <v>87.5</v>
+        <v>68</v>
       </c>
     </row>
     <row r="41" spans="1:6">
@@ -2064,16 +2052,16 @@
         <v>145</v>
       </c>
       <c r="C41">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D41">
-        <v>15</v>
+        <v>75</v>
       </c>
       <c r="E41" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="F41">
-        <v>15</v>
+        <v>93.75</v>
       </c>
     </row>
     <row r="42" spans="1:6">
@@ -2084,16 +2072,16 @@
         <v>146</v>
       </c>
       <c r="C42">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D42">
-        <v>27</v>
+        <v>96</v>
       </c>
       <c r="E42" t="s">
-        <v>220</v>
+        <v>244</v>
       </c>
       <c r="F42">
-        <v>33.75</v>
+        <v>96</v>
       </c>
     </row>
     <row r="43" spans="1:6">
@@ -2104,16 +2092,16 @@
         <v>147</v>
       </c>
       <c r="C43">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D43">
-        <v>86</v>
+        <v>74</v>
       </c>
       <c r="E43" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="F43">
-        <v>107.5</v>
+        <v>74</v>
       </c>
     </row>
     <row r="44" spans="1:6">
@@ -2124,16 +2112,16 @@
         <v>148</v>
       </c>
       <c r="C44">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D44">
-        <v>37</v>
+        <v>83</v>
       </c>
       <c r="E44" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="F44">
-        <v>37</v>
+        <v>83</v>
       </c>
     </row>
     <row r="45" spans="1:6">
@@ -2144,16 +2132,16 @@
         <v>149</v>
       </c>
       <c r="C45">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D45">
-        <v>27</v>
+        <v>62</v>
       </c>
       <c r="E45" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="F45">
-        <v>33.75</v>
+        <v>62</v>
       </c>
     </row>
     <row r="46" spans="1:6">
@@ -2164,16 +2152,16 @@
         <v>150</v>
       </c>
       <c r="C46">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D46">
-        <v>11</v>
+        <v>58</v>
       </c>
       <c r="E46" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="F46">
-        <v>13.75</v>
+        <v>58</v>
       </c>
     </row>
     <row r="47" spans="1:6">
@@ -2184,16 +2172,16 @@
         <v>151</v>
       </c>
       <c r="C47">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D47">
-        <v>37</v>
+        <v>68</v>
       </c>
       <c r="E47" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="F47">
-        <v>46.25</v>
+        <v>85</v>
       </c>
     </row>
     <row r="48" spans="1:6">
@@ -2204,16 +2192,16 @@
         <v>152</v>
       </c>
       <c r="C48">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D48">
-        <v>8</v>
+        <v>81</v>
       </c>
       <c r="E48" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="F48">
-        <v>10</v>
+        <v>81</v>
       </c>
     </row>
     <row r="49" spans="1:6">
@@ -2224,16 +2212,16 @@
         <v>153</v>
       </c>
       <c r="C49">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D49">
-        <v>49</v>
+        <v>92</v>
       </c>
       <c r="E49" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="F49">
-        <v>49</v>
+        <v>115</v>
       </c>
     </row>
     <row r="50" spans="1:6">
@@ -2244,16 +2232,16 @@
         <v>154</v>
       </c>
       <c r="C50">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D50">
-        <v>82</v>
+        <v>97</v>
       </c>
       <c r="E50" t="s">
-        <v>253</v>
+        <v>235</v>
       </c>
       <c r="F50">
-        <v>82</v>
+        <v>97</v>
       </c>
     </row>
     <row r="51" spans="1:6">
@@ -2264,16 +2252,16 @@
         <v>155</v>
       </c>
       <c r="C51">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D51">
-        <v>15</v>
+        <v>70</v>
       </c>
       <c r="E51" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="F51">
-        <v>18.75</v>
+        <v>70</v>
       </c>
     </row>
     <row r="52" spans="1:6">
@@ -2290,7 +2278,7 @@
         <v>56</v>
       </c>
       <c r="E52" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="F52">
         <v>56</v>
@@ -2304,16 +2292,16 @@
         <v>157</v>
       </c>
       <c r="C53">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D53">
-        <v>14</v>
+        <v>93</v>
       </c>
       <c r="E53" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="F53">
-        <v>17.5</v>
+        <v>93</v>
       </c>
     </row>
     <row r="54" spans="1:6">
@@ -2327,13 +2315,13 @@
         <v>1</v>
       </c>
       <c r="D54">
-        <v>84</v>
+        <v>63</v>
       </c>
       <c r="E54" t="s">
-        <v>257</v>
+        <v>206</v>
       </c>
       <c r="F54">
-        <v>84</v>
+        <v>63</v>
       </c>
     </row>
     <row r="55" spans="1:6">
@@ -2347,13 +2335,13 @@
         <v>3</v>
       </c>
       <c r="D55">
-        <v>39</v>
+        <v>59</v>
       </c>
       <c r="E55" t="s">
-        <v>224</v>
+        <v>254</v>
       </c>
       <c r="F55">
-        <v>39</v>
+        <v>59</v>
       </c>
     </row>
     <row r="56" spans="1:6">
@@ -2364,16 +2352,16 @@
         <v>160</v>
       </c>
       <c r="C56">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D56">
-        <v>21</v>
+        <v>72</v>
       </c>
       <c r="E56" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="F56">
-        <v>21</v>
+        <v>90</v>
       </c>
     </row>
     <row r="57" spans="1:6">
@@ -2384,16 +2372,16 @@
         <v>161</v>
       </c>
       <c r="C57">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D57">
-        <v>2</v>
+        <v>74</v>
       </c>
       <c r="E57" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="F57">
-        <v>2</v>
+        <v>74</v>
       </c>
     </row>
     <row r="58" spans="1:6">
@@ -2407,13 +2395,13 @@
         <v>2</v>
       </c>
       <c r="D58">
-        <v>17</v>
+        <v>98</v>
       </c>
       <c r="E58" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="F58">
-        <v>17</v>
+        <v>98</v>
       </c>
     </row>
     <row r="59" spans="1:6">
@@ -2424,16 +2412,16 @@
         <v>163</v>
       </c>
       <c r="C59">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D59">
-        <v>27</v>
+        <v>75</v>
       </c>
       <c r="E59" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="F59">
-        <v>27</v>
+        <v>75</v>
       </c>
     </row>
     <row r="60" spans="1:6">
@@ -2447,13 +2435,13 @@
         <v>1</v>
       </c>
       <c r="D60">
-        <v>57</v>
+        <v>64</v>
       </c>
       <c r="E60" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="F60">
-        <v>57</v>
+        <v>64</v>
       </c>
     </row>
     <row r="61" spans="1:6">
@@ -2464,16 +2452,16 @@
         <v>165</v>
       </c>
       <c r="C61">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D61">
-        <v>75</v>
+        <v>90</v>
       </c>
       <c r="E61" t="s">
-        <v>263</v>
+        <v>230</v>
       </c>
       <c r="F61">
-        <v>75</v>
+        <v>112.5</v>
       </c>
     </row>
     <row r="62" spans="1:6">
@@ -2484,16 +2472,16 @@
         <v>166</v>
       </c>
       <c r="C62">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D62">
-        <v>86</v>
+        <v>64</v>
       </c>
       <c r="E62" t="s">
-        <v>264</v>
+        <v>224</v>
       </c>
       <c r="F62">
-        <v>86</v>
+        <v>80</v>
       </c>
     </row>
     <row r="63" spans="1:6">
@@ -2504,16 +2492,16 @@
         <v>167</v>
       </c>
       <c r="C63">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D63">
-        <v>23</v>
+        <v>68</v>
       </c>
       <c r="E63" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
       <c r="F63">
-        <v>23</v>
+        <v>68</v>
       </c>
     </row>
     <row r="64" spans="1:6">
@@ -2524,16 +2512,16 @@
         <v>168</v>
       </c>
       <c r="C64">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D64">
-        <v>65</v>
+        <v>88</v>
       </c>
       <c r="E64" t="s">
-        <v>266</v>
+        <v>261</v>
       </c>
       <c r="F64">
-        <v>81.25</v>
+        <v>88</v>
       </c>
     </row>
     <row r="65" spans="1:6">
@@ -2544,16 +2532,16 @@
         <v>169</v>
       </c>
       <c r="C65">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D65">
-        <v>16</v>
+        <v>72</v>
       </c>
       <c r="E65" t="s">
-        <v>267</v>
+        <v>262</v>
       </c>
       <c r="F65">
-        <v>16</v>
+        <v>90</v>
       </c>
     </row>
     <row r="66" spans="1:6">
@@ -2564,16 +2552,16 @@
         <v>170</v>
       </c>
       <c r="C66">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D66">
-        <v>13</v>
+        <v>97</v>
       </c>
       <c r="E66" t="s">
-        <v>268</v>
+        <v>263</v>
       </c>
       <c r="F66">
-        <v>13</v>
+        <v>97</v>
       </c>
     </row>
     <row r="67" spans="1:6">
@@ -2584,16 +2572,16 @@
         <v>171</v>
       </c>
       <c r="C67">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D67">
-        <v>16</v>
+        <v>70</v>
       </c>
       <c r="E67" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="F67">
-        <v>20</v>
+        <v>70</v>
       </c>
     </row>
     <row r="68" spans="1:6">
@@ -2604,16 +2592,16 @@
         <v>172</v>
       </c>
       <c r="C68">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D68">
-        <v>69</v>
+        <v>95</v>
       </c>
       <c r="E68" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="F68">
-        <v>69</v>
+        <v>118.75</v>
       </c>
     </row>
     <row r="69" spans="1:6">
@@ -2627,13 +2615,13 @@
         <v>2</v>
       </c>
       <c r="D69">
-        <v>53</v>
+        <v>73</v>
       </c>
       <c r="E69" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="F69">
-        <v>53</v>
+        <v>73</v>
       </c>
     </row>
     <row r="70" spans="1:6">
@@ -2647,13 +2635,13 @@
         <v>2</v>
       </c>
       <c r="D70">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="E70" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="F70">
-        <v>89</v>
+        <v>93</v>
       </c>
     </row>
     <row r="71" spans="1:6">
@@ -2664,16 +2652,16 @@
         <v>175</v>
       </c>
       <c r="C71">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D71">
-        <v>20</v>
+        <v>76</v>
       </c>
       <c r="E71" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="F71">
-        <v>20</v>
+        <v>76</v>
       </c>
     </row>
     <row r="72" spans="1:6">
@@ -2684,16 +2672,16 @@
         <v>176</v>
       </c>
       <c r="C72">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D72">
-        <v>1</v>
+        <v>56</v>
       </c>
       <c r="E72" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="F72">
-        <v>1.25</v>
+        <v>56</v>
       </c>
     </row>
     <row r="73" spans="1:6">
@@ -2704,16 +2692,16 @@
         <v>177</v>
       </c>
       <c r="C73">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D73">
-        <v>53</v>
+        <v>89</v>
       </c>
       <c r="E73" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="F73">
-        <v>53</v>
+        <v>89</v>
       </c>
     </row>
     <row r="74" spans="1:6">
@@ -2724,16 +2712,16 @@
         <v>178</v>
       </c>
       <c r="C74">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D74">
-        <v>93</v>
+        <v>69</v>
       </c>
       <c r="E74" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="F74">
-        <v>93</v>
+        <v>69</v>
       </c>
     </row>
     <row r="75" spans="1:6">
@@ -2744,16 +2732,16 @@
         <v>179</v>
       </c>
       <c r="C75">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D75">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="E75" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="F75">
-        <v>71</v>
+        <v>67</v>
       </c>
     </row>
     <row r="76" spans="1:6">
@@ -2764,16 +2752,16 @@
         <v>180</v>
       </c>
       <c r="C76">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D76">
-        <v>71</v>
+        <v>78</v>
       </c>
       <c r="E76" t="s">
-        <v>260</v>
+        <v>271</v>
       </c>
       <c r="F76">
-        <v>88.75</v>
+        <v>97.5</v>
       </c>
     </row>
     <row r="77" spans="1:6">
@@ -2784,16 +2772,16 @@
         <v>181</v>
       </c>
       <c r="C77">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D77">
-        <v>44</v>
+        <v>88</v>
       </c>
       <c r="E77" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="F77">
-        <v>44</v>
+        <v>110</v>
       </c>
     </row>
     <row r="78" spans="1:6">
@@ -2804,16 +2792,16 @@
         <v>182</v>
       </c>
       <c r="C78">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D78">
-        <v>70</v>
+        <v>96</v>
       </c>
       <c r="E78" t="s">
-        <v>262</v>
+        <v>273</v>
       </c>
       <c r="F78">
-        <v>70</v>
+        <v>120</v>
       </c>
     </row>
     <row r="79" spans="1:6">
@@ -2827,13 +2815,13 @@
         <v>4</v>
       </c>
       <c r="D79">
-        <v>41</v>
+        <v>62</v>
       </c>
       <c r="E79" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="F79">
-        <v>51.25</v>
+        <v>77.5</v>
       </c>
     </row>
     <row r="80" spans="1:6">
@@ -2844,16 +2832,16 @@
         <v>184</v>
       </c>
       <c r="C80">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D80">
-        <v>24</v>
+        <v>96</v>
       </c>
       <c r="E80" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="F80">
-        <v>30</v>
+        <v>96</v>
       </c>
     </row>
     <row r="81" spans="1:6">
@@ -2864,16 +2852,16 @@
         <v>185</v>
       </c>
       <c r="C81">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D81">
-        <v>27</v>
+        <v>60</v>
       </c>
       <c r="E81" t="s">
-        <v>219</v>
+        <v>239</v>
       </c>
       <c r="F81">
-        <v>27</v>
+        <v>60</v>
       </c>
     </row>
     <row r="82" spans="1:6">
@@ -2884,16 +2872,16 @@
         <v>186</v>
       </c>
       <c r="C82">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D82">
-        <v>57</v>
+        <v>65</v>
       </c>
       <c r="E82" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="F82">
-        <v>57</v>
+        <v>65</v>
       </c>
     </row>
     <row r="83" spans="1:6">
@@ -2904,16 +2892,16 @@
         <v>187</v>
       </c>
       <c r="C83">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D83">
-        <v>100</v>
+        <v>88</v>
       </c>
       <c r="E83" t="s">
-        <v>279</v>
+        <v>246</v>
       </c>
       <c r="F83">
-        <v>100</v>
+        <v>88</v>
       </c>
     </row>
     <row r="84" spans="1:6">
@@ -2927,13 +2915,13 @@
         <v>5</v>
       </c>
       <c r="D84">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="E84" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="F84">
-        <v>103.75</v>
+        <v>105</v>
       </c>
     </row>
     <row r="85" spans="1:6">
@@ -2944,16 +2932,16 @@
         <v>189</v>
       </c>
       <c r="C85">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D85">
-        <v>19</v>
+        <v>57</v>
       </c>
       <c r="E85" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="F85">
-        <v>19</v>
+        <v>57</v>
       </c>
     </row>
     <row r="86" spans="1:6">
@@ -2967,13 +2955,13 @@
         <v>4</v>
       </c>
       <c r="D86">
-        <v>83</v>
+        <v>52</v>
       </c>
       <c r="E86" t="s">
-        <v>282</v>
+        <v>211</v>
       </c>
       <c r="F86">
-        <v>103.75</v>
+        <v>65</v>
       </c>
     </row>
     <row r="87" spans="1:6">
@@ -2987,13 +2975,13 @@
         <v>3</v>
       </c>
       <c r="D87">
-        <v>56</v>
+        <v>88</v>
       </c>
       <c r="E87" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="F87">
-        <v>56</v>
+        <v>88</v>
       </c>
     </row>
     <row r="88" spans="1:6">
@@ -3004,16 +2992,16 @@
         <v>192</v>
       </c>
       <c r="C88">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D88">
-        <v>13</v>
+        <v>93</v>
       </c>
       <c r="E88" t="s">
-        <v>244</v>
+        <v>250</v>
       </c>
       <c r="F88">
-        <v>13</v>
+        <v>116.25</v>
       </c>
     </row>
     <row r="89" spans="1:6">
@@ -3024,16 +3012,16 @@
         <v>193</v>
       </c>
       <c r="C89">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D89">
-        <v>94</v>
+        <v>75</v>
       </c>
       <c r="E89" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
       <c r="F89">
-        <v>117.5</v>
+        <v>75</v>
       </c>
     </row>
     <row r="90" spans="1:6">
@@ -3044,16 +3032,16 @@
         <v>194</v>
       </c>
       <c r="C90">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D90">
-        <v>85</v>
+        <v>64</v>
       </c>
       <c r="E90" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
       <c r="F90">
-        <v>106.25</v>
+        <v>64</v>
       </c>
     </row>
     <row r="91" spans="1:6">
@@ -3064,16 +3052,16 @@
         <v>195</v>
       </c>
       <c r="C91">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D91">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="E91" t="s">
-        <v>272</v>
+        <v>282</v>
       </c>
       <c r="F91">
-        <v>81</v>
+        <v>97.5</v>
       </c>
     </row>
     <row r="92" spans="1:6">
@@ -3084,16 +3072,16 @@
         <v>196</v>
       </c>
       <c r="C92">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D92">
-        <v>3</v>
+        <v>59</v>
       </c>
       <c r="E92" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="F92">
-        <v>3</v>
+        <v>73.75</v>
       </c>
     </row>
     <row r="93" spans="1:6">
@@ -3107,13 +3095,13 @@
         <v>3</v>
       </c>
       <c r="D93">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="E93" t="s">
-        <v>247</v>
+        <v>284</v>
       </c>
       <c r="F93">
-        <v>82</v>
+        <v>78</v>
       </c>
     </row>
     <row r="94" spans="1:6">
@@ -3127,13 +3115,13 @@
         <v>1</v>
       </c>
       <c r="D94">
-        <v>7</v>
+        <v>59</v>
       </c>
       <c r="E94" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="F94">
-        <v>7</v>
+        <v>59</v>
       </c>
     </row>
     <row r="95" spans="1:6">
@@ -3144,16 +3132,16 @@
         <v>199</v>
       </c>
       <c r="C95">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D95">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="E95" t="s">
-        <v>288</v>
+        <v>211</v>
       </c>
       <c r="F95">
-        <v>90</v>
+        <v>108.75</v>
       </c>
     </row>
     <row r="96" spans="1:6">
@@ -3164,16 +3152,16 @@
         <v>200</v>
       </c>
       <c r="C96">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D96">
-        <v>84</v>
+        <v>94</v>
       </c>
       <c r="E96" t="s">
-        <v>248</v>
+        <v>208</v>
       </c>
       <c r="F96">
-        <v>84</v>
+        <v>94</v>
       </c>
     </row>
     <row r="97" spans="1:6">
@@ -3187,13 +3175,13 @@
         <v>3</v>
       </c>
       <c r="D97">
-        <v>43</v>
+        <v>99</v>
       </c>
       <c r="E97" t="s">
-        <v>289</v>
+        <v>249</v>
       </c>
       <c r="F97">
-        <v>43</v>
+        <v>99</v>
       </c>
     </row>
     <row r="98" spans="1:6">
@@ -3204,16 +3192,16 @@
         <v>202</v>
       </c>
       <c r="C98">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D98">
-        <v>17</v>
+        <v>69</v>
       </c>
       <c r="E98" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="F98">
-        <v>17</v>
+        <v>86.25</v>
       </c>
     </row>
     <row r="99" spans="1:6">
@@ -3224,16 +3212,16 @@
         <v>203</v>
       </c>
       <c r="C99">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D99">
-        <v>100</v>
+        <v>84</v>
       </c>
       <c r="E99" t="s">
-        <v>291</v>
+        <v>264</v>
       </c>
       <c r="F99">
-        <v>100</v>
+        <v>105</v>
       </c>
     </row>
     <row r="100" spans="1:6">
@@ -3244,16 +3232,16 @@
         <v>204</v>
       </c>
       <c r="C100">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D100">
-        <v>55</v>
+        <v>67</v>
       </c>
       <c r="E100" t="s">
-        <v>235</v>
+        <v>287</v>
       </c>
       <c r="F100">
-        <v>68.75</v>
+        <v>67</v>
       </c>
     </row>
     <row r="101" spans="1:6">
@@ -3264,16 +3252,16 @@
         <v>205</v>
       </c>
       <c r="C101">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D101">
-        <v>1</v>
+        <v>85</v>
       </c>
       <c r="E101" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="F101">
-        <v>1</v>
+        <v>106.25</v>
       </c>
     </row>
   </sheetData>
